--- a/DoorTask-heatpain/tempConv.xlsx
+++ b/DoorTask-heatpain/tempConv.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HeatAnticipation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimmy\Documents\github\PsychoPyParadigms\DoorTask-heatpain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E029DC69-6D72-4DFF-BA37-2E9F330C95F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4920D8-6302-44EC-80E6-63C900BFBA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5E2910BD-2BF0-44C8-B78B-2ACED771D765}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5E2910BD-2BF0-44C8-B78B-2ACED771D765}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Temp</t>
   </si>
@@ -120,18 +112,38 @@
   </si>
   <si>
     <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -472,15 +484,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9B9DDB-2139-444E-85B3-7342920EE514}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>34</v>
       </c>
@@ -496,7 +508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>34.5</v>
       </c>
@@ -504,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>35</v>
       </c>
@@ -512,7 +524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>35.5</v>
       </c>
@@ -520,7 +532,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>36</v>
       </c>
@@ -528,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>36.5</v>
       </c>
@@ -536,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>37</v>
       </c>
@@ -544,7 +556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>37.5</v>
       </c>
@@ -552,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>38</v>
       </c>
@@ -560,7 +572,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>38.5</v>
       </c>
@@ -568,7 +580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>39</v>
       </c>
@@ -576,7 +588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>39.5</v>
       </c>
@@ -584,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -592,7 +604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>40.5</v>
       </c>
@@ -600,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>41</v>
       </c>
@@ -608,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>41.5</v>
       </c>
@@ -616,7 +628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>42</v>
       </c>
@@ -624,7 +636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>42.5</v>
       </c>
@@ -632,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>43</v>
       </c>
@@ -640,7 +652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>43.5</v>
       </c>
@@ -648,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>44</v>
       </c>
@@ -656,7 +668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>44.5</v>
       </c>
@@ -664,7 +676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>45</v>
       </c>
@@ -672,7 +684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>45.5</v>
       </c>
@@ -680,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -688,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>46.5</v>
       </c>
@@ -696,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>47</v>
       </c>
@@ -704,7 +716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>47.5</v>
       </c>
@@ -712,7 +724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>48</v>
       </c>
@@ -720,7 +732,35 @@
         <v>28</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DoorTask-heatpain/tempConv.xlsx
+++ b/DoorTask-heatpain/tempConv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimmy\Documents\github\PsychoPyParadigms\DoorTask-heatpain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4920D8-6302-44EC-80E6-63C900BFBA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A1F80-ECE8-4D9B-A698-64A79A2BA360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5E2910BD-2BF0-44C8-B78B-2ACED771D765}"/>
+    <workbookView xWindow="4275" yWindow="1515" windowWidth="21600" windowHeight="11235" xr2:uid="{5E2910BD-2BF0-44C8-B78B-2ACED771D765}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Temp</t>
   </si>
@@ -111,19 +111,23 @@
     <t>246</t>
   </si>
   <si>
-    <t>14</t>
+    <t>247</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>142</t>
+    <t>225</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>139</t>
+    <t>226</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>78</t>
+    <t>228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>229</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -188,9 +192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -334,7 +338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,7 +480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,13 +490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9B9DDB-2139-444E-85B3-7342920EE514}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>34</v>
       </c>
@@ -508,7 +512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>34.5</v>
       </c>
@@ -516,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>35</v>
       </c>
@@ -524,7 +528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>35.5</v>
       </c>
@@ -532,7 +536,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>36</v>
       </c>
@@ -540,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>36.5</v>
       </c>
@@ -548,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>37</v>
       </c>
@@ -556,7 +560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>37.5</v>
       </c>
@@ -564,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>38</v>
       </c>
@@ -572,7 +576,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>38.5</v>
       </c>
@@ -580,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>39</v>
       </c>
@@ -588,7 +592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>39.5</v>
       </c>
@@ -596,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -604,7 +608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>40.5</v>
       </c>
@@ -612,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>41</v>
       </c>
@@ -620,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>41.5</v>
       </c>
@@ -628,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42</v>
       </c>
@@ -636,7 +640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42.5</v>
       </c>
@@ -644,7 +648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43</v>
       </c>
@@ -652,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43.5</v>
       </c>
@@ -660,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44</v>
       </c>
@@ -668,7 +672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44.5</v>
       </c>
@@ -676,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45</v>
       </c>
@@ -684,7 +688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45.5</v>
       </c>
@@ -692,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -700,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>46.5</v>
       </c>
@@ -708,7 +712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>47</v>
       </c>
@@ -716,7 +720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>47.5</v>
       </c>
@@ -724,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>48</v>
       </c>
@@ -732,32 +736,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
